--- a/QuestionBank-Template.xlsx
+++ b/QuestionBank-Template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bella\Desktop\SeniorProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assumption University\Senior Project 1\SeniorProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2657E76-B1F8-43FF-9A6C-6A3016111768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD9182-E1CB-4248-9159-7EB475FB2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
     <sheet name="MultipleChoice" sheetId="4" r:id="rId2"/>
     <sheet name="TrueFalse" sheetId="1" r:id="rId3"/>
     <sheet name="Matching" sheetId="2" r:id="rId4"/>
+    <sheet name="Written Question" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>T</t>
   </si>
@@ -198,6 +199,45 @@
   </si>
   <si>
     <t>img.png</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>question type</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Apple is a fruit</t>
+  </si>
+  <si>
+    <t>What is an apple?</t>
+  </si>
+  <si>
+    <t>Describe your favourite place.</t>
+  </si>
+  <si>
+    <t>It is a beautiful place with happy thoughts…</t>
+  </si>
+  <si>
+    <t>Something sour.</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Something bitter.</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>meat</t>
   </si>
 </sst>
 </file>
@@ -608,7 +648,7 @@
       </c>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45779</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1104,13 +1144,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,10 +1177,26 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1175,6 +1232,122 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F7917-4FC8-4FF7-B762-EA8CF8ABB661}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
